--- a/First-Idea.xlsx
+++ b/First-Idea.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585A77B6-5784-4848-B11D-5B14D160BE05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA26DA1-6452-BC49-A77A-09D2DB160415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="2120" windowWidth="22260" windowHeight="14800" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First-Idea" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="127">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>React</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,18 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>djangoproject.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>djangopackages.org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>httpd.apache.org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MySQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,30 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dart.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flutter.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub.dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh-hans.reactjs.org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python.org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pypi.org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算机基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,6 +519,22 @@
   </si>
   <si>
     <t>Deep Learning with PyTorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python for data analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Django企业开发实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flutter完整开发实战详解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入浅出React和Redux</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -665,6 +641,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -679,6 +658,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,27 +1000,27 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:15">
@@ -1048,11 +1030,11 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1073,11 +1055,11 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
@@ -1096,11 +1078,11 @@
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="4">
         <v>4</v>
       </c>
@@ -1119,11 +1101,11 @@
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="4">
         <v>4</v>
       </c>
@@ -1146,11 +1128,11 @@
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="4">
         <v>7</v>
       </c>
@@ -1169,11 +1151,11 @@
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="4">
         <v>7</v>
       </c>
@@ -1192,11 +1174,11 @@
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="4">
         <v>3</v>
       </c>
@@ -1215,11 +1197,11 @@
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="4">
         <v>5</v>
       </c>
@@ -1238,11 +1220,11 @@
       <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="4">
         <v>2</v>
       </c>
@@ -1263,11 +1245,11 @@
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="4">
         <v>2</v>
       </c>
@@ -1286,11 +1268,11 @@
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
@@ -1311,11 +1293,11 @@
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="4">
         <v>3</v>
       </c>
@@ -1330,11 +1312,11 @@
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="4">
         <v>1</v>
       </c>
@@ -1351,11 +1333,11 @@
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="4">
         <v>4</v>
       </c>
@@ -1370,11 +1352,11 @@
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="4">
         <v>4</v>
       </c>
@@ -1389,11 +1371,11 @@
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="4">
         <v>4</v>
       </c>
@@ -1408,11 +1390,11 @@
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="4">
         <v>1</v>
       </c>
@@ -1429,11 +1411,11 @@
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="4">
         <v>4</v>
       </c>
@@ -1449,11 +1431,11 @@
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="4">
         <v>3</v>
       </c>
@@ -1465,11 +1447,11 @@
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="4">
         <v>1</v>
       </c>
@@ -1485,11 +1467,11 @@
       <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="4">
         <v>4</v>
       </c>
@@ -1517,17 +1499,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1540,6 +1511,17 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1557,27 +1539,27 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:13">
@@ -1587,11 +1569,11 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1612,11 +1594,11 @@
       <c r="B4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="11">
         <v>2</v>
       </c>
@@ -1637,11 +1619,11 @@
       <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="11">
         <v>4</v>
       </c>
@@ -1660,11 +1642,11 @@
       <c r="B6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="11">
         <v>14</v>
       </c>
@@ -1685,11 +1667,11 @@
       <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="11">
         <v>3</v>
       </c>
@@ -1710,11 +1692,11 @@
       <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="11">
         <v>4</v>
       </c>
@@ -1735,11 +1717,11 @@
       <c r="B9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
@@ -1758,11 +1740,11 @@
       <c r="B10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="11">
         <v>2</v>
       </c>
@@ -1783,11 +1765,11 @@
       <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="11">
         <v>4</v>
       </c>
@@ -1806,11 +1788,11 @@
       <c r="B12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="11">
         <v>2</v>
       </c>
@@ -1831,11 +1813,11 @@
       <c r="B13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="11">
         <v>4</v>
       </c>
@@ -1852,11 +1834,11 @@
       <c r="B14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="11">
         <v>4</v>
       </c>
@@ -1871,11 +1853,11 @@
       <c r="B15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="11">
         <v>1</v>
       </c>
@@ -1892,11 +1874,11 @@
       <c r="B16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="11">
         <v>3</v>
       </c>
@@ -1911,11 +1893,11 @@
       <c r="B17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="11">
         <v>2</v>
       </c>
@@ -1932,11 +1914,11 @@
       <c r="B18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="11">
         <v>3</v>
       </c>
@@ -1951,11 +1933,11 @@
       <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="11">
         <v>1</v>
       </c>
@@ -1972,11 +1954,11 @@
       <c r="B20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="11">
         <v>3</v>
       </c>
@@ -1990,11 +1972,11 @@
       <c r="B21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="11">
         <v>1</v>
       </c>
@@ -2010,11 +1992,11 @@
       <c r="B22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="11">
         <v>4</v>
       </c>
@@ -2030,11 +2012,11 @@
       <c r="B23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="11">
         <v>0</v>
       </c>
@@ -2062,18 +2044,18 @@
     <row r="25" spans="1:9">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -2088,18 +2070,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -2113,6 +2083,18 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2122,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2137,16 +2119,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -2157,94 +2139,71 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="16"/>
+        <v>123</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26" t="s">
+        <v>98</v>
+      </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="23" t="s">
-        <v>98</v>
+      <c r="A6" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>125</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="23"/>
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>126</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="23"/>
-      <c r="B11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="23"/>
-      <c r="B12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2253,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2267,50 +2226,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="23"/>
       <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>116</v>
+      <c r="A2" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
+      <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
+      <c r="A4" s="24"/>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
+      <c r="A5" s="24"/>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
+      <c r="A6" s="24"/>
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -2319,50 +2282,60 @@
       </c>
     </row>
     <row r="7" spans="1:3">
+      <c r="A7" s="24"/>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3">
+      <c r="A8" s="24"/>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
+      <c r="A9" s="24"/>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
+      <c r="A10" s="24"/>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
+      <c r="A11" s="24"/>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3">
+      <c r="A12" s="24"/>
       <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="20" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
+      <c r="A13" s="24"/>
       <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3">
+      <c r="A14" s="24"/>
       <c r="B14" t="s">
         <v>79</v>
       </c>
@@ -2371,86 +2344,95 @@
       </c>
     </row>
     <row r="15" spans="1:3">
+      <c r="A15" s="24"/>
       <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="24"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="24"/>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="24"/>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B20" t="s">
         <v>120</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C20" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="24"/>
+      <c r="B21" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
+      <c r="C21" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="24"/>
+      <c r="B22" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" t="s">
-        <v>130</v>
-      </c>
       <c r="C22" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/First-Idea.xlsx
+++ b/First-Idea.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA26DA1-6452-BC49-A77A-09D2DB160415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527C57BC-134E-8A48-9384-F89AFB9A22F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="131">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,6 +535,22 @@
   </si>
   <si>
     <t>深入浅出React和Redux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BootstrapWeb设计与开发实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国等级英语考试三级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -644,6 +660,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -653,14 +678,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,27 +1022,27 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:15">
@@ -1030,11 +1052,11 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1055,11 +1077,11 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
@@ -1078,11 +1100,11 @@
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="4">
         <v>4</v>
       </c>
@@ -1101,11 +1123,11 @@
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="4">
         <v>4</v>
       </c>
@@ -1128,11 +1150,11 @@
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="4">
         <v>7</v>
       </c>
@@ -1151,11 +1173,11 @@
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="4">
         <v>7</v>
       </c>
@@ -1174,11 +1196,11 @@
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="4">
         <v>3</v>
       </c>
@@ -1197,11 +1219,11 @@
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="4">
         <v>5</v>
       </c>
@@ -1220,11 +1242,11 @@
       <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="4">
         <v>2</v>
       </c>
@@ -1245,11 +1267,11 @@
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="4">
         <v>2</v>
       </c>
@@ -1268,11 +1290,11 @@
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
@@ -1293,11 +1315,11 @@
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="4">
         <v>3</v>
       </c>
@@ -1312,11 +1334,11 @@
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="4">
         <v>1</v>
       </c>
@@ -1333,11 +1355,11 @@
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="4">
         <v>4</v>
       </c>
@@ -1352,11 +1374,11 @@
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="4">
         <v>4</v>
       </c>
@@ -1371,11 +1393,11 @@
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="4">
         <v>4</v>
       </c>
@@ -1390,11 +1412,11 @@
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="4">
         <v>1</v>
       </c>
@@ -1411,11 +1433,11 @@
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="4">
         <v>4</v>
       </c>
@@ -1431,11 +1453,11 @@
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="4">
         <v>3</v>
       </c>
@@ -1447,11 +1469,11 @@
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="4">
         <v>1</v>
       </c>
@@ -1467,11 +1489,11 @@
       <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="4">
         <v>4</v>
       </c>
@@ -1499,6 +1521,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1511,17 +1544,6 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1539,27 +1561,27 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:13">
@@ -1569,11 +1591,11 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1594,11 +1616,11 @@
       <c r="B4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="11">
         <v>2</v>
       </c>
@@ -1619,11 +1641,11 @@
       <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="11">
         <v>4</v>
       </c>
@@ -1642,11 +1664,11 @@
       <c r="B6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="11">
         <v>14</v>
       </c>
@@ -1667,11 +1689,11 @@
       <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="11">
         <v>3</v>
       </c>
@@ -1692,11 +1714,11 @@
       <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="11">
         <v>4</v>
       </c>
@@ -1717,11 +1739,11 @@
       <c r="B9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
@@ -1740,11 +1762,11 @@
       <c r="B10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="11">
         <v>2</v>
       </c>
@@ -1765,11 +1787,11 @@
       <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="11">
         <v>4</v>
       </c>
@@ -1788,11 +1810,11 @@
       <c r="B12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="11">
         <v>2</v>
       </c>
@@ -1813,11 +1835,11 @@
       <c r="B13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="11">
         <v>4</v>
       </c>
@@ -1834,11 +1856,11 @@
       <c r="B14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="11">
         <v>4</v>
       </c>
@@ -1853,11 +1875,11 @@
       <c r="B15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="11">
         <v>1</v>
       </c>
@@ -1874,11 +1896,11 @@
       <c r="B16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="11">
         <v>3</v>
       </c>
@@ -1893,11 +1915,11 @@
       <c r="B17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="11">
         <v>2</v>
       </c>
@@ -1914,11 +1936,11 @@
       <c r="B18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="11">
         <v>3</v>
       </c>
@@ -1933,11 +1955,11 @@
       <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="11">
         <v>1</v>
       </c>
@@ -1954,11 +1976,11 @@
       <c r="B20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="11">
         <v>3</v>
       </c>
@@ -1972,11 +1994,11 @@
       <c r="B21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="11">
         <v>1</v>
       </c>
@@ -1992,11 +2014,11 @@
       <c r="B22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="11">
         <v>4</v>
       </c>
@@ -2012,11 +2034,11 @@
       <c r="B23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="11">
         <v>0</v>
       </c>
@@ -2044,18 +2066,18 @@
     <row r="25" spans="1:9">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -2070,6 +2092,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -2083,18 +2117,6 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2104,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2119,16 +2141,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -2139,7 +2161,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" t="s">
         <v>102</v>
       </c>
@@ -2148,7 +2170,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" t="s">
         <v>123</v>
       </c>
@@ -2157,7 +2179,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>98</v>
       </c>
       <c r="B5" t="s">
@@ -2168,7 +2190,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>105</v>
       </c>
       <c r="B6" t="s">
@@ -2185,18 +2207,29 @@
       <c r="B7" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>103</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2212,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2226,16 +2259,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>106</v>
       </c>
       <c r="B2" t="s">
@@ -2246,7 +2279,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="28"/>
       <c r="B3" t="s">
         <v>108</v>
       </c>
@@ -2255,7 +2288,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="28"/>
       <c r="B4" t="s">
         <v>114</v>
       </c>
@@ -2264,7 +2297,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="24"/>
+      <c r="A5" s="28"/>
       <c r="B5" t="s">
         <v>115</v>
       </c>
@@ -2273,7 +2306,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="28"/>
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -2282,11 +2315,11 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="28"/>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="28"/>
       <c r="B8" t="s">
         <v>116</v>
       </c>
@@ -2295,7 +2328,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="28"/>
       <c r="B9" t="s">
         <v>117</v>
       </c>
@@ -2304,7 +2337,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="28"/>
       <c r="B10" t="s">
         <v>118</v>
       </c>
@@ -2313,20 +2346,18 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="28"/>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>47</v>
-      </c>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -2335,7 +2366,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
         <v>79</v>
       </c>
@@ -2344,7 +2375,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
         <v>109</v>
       </c>
@@ -2353,7 +2384,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="28" t="s">
         <v>110</v>
       </c>
       <c r="B16" t="s">
@@ -2364,7 +2395,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="28"/>
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -2373,7 +2404,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
         <v>112</v>
       </c>
@@ -2382,7 +2413,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="28"/>
       <c r="B19" t="s">
         <v>113</v>
       </c>
@@ -2391,48 +2422,59 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="24"/>
-      <c r="B21" t="s">
+      <c r="C21" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="28"/>
+      <c r="B22" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="24"/>
-      <c r="B22" t="s">
+      <c r="C22" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="28"/>
+      <c r="B23" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="C23" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/First-Idea.xlsx
+++ b/First-Idea.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527C57BC-134E-8A48-9384-F89AFB9A22F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272B739A-6CEF-3E4E-B931-1A63DDAD5403}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6380" yWindow="460" windowWidth="18340" windowHeight="17540" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First-Idea" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="128">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,10 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>React</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,14 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MySQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高性能MySQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dart &amp; Flutter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,10 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李宏毅 机器学习 video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Deep Learning with PyTorch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,6 +535,10 @@
   </si>
   <si>
     <t>全国等级英语考试三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴恩达+李宏毅 video</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -647,15 +635,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,6 +651,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -677,9 +665,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1521,17 +1506,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1544,6 +1518,17 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2092,18 +2077,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -2117,6 +2090,18 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2126,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2150,93 +2135,52 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="27"/>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="27"/>
       <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>123</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="C5" s="18" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2245,10 +2189,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2260,7 +2204,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="10" t="s">
@@ -2268,45 +2212,45 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="28" t="s">
-        <v>106</v>
+      <c r="A2" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="28"/>
+      <c r="A3" s="27"/>
       <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="27"/>
       <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="27"/>
       <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="27"/>
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -2315,166 +2259,199 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="28"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="27"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="28"/>
-      <c r="B8" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="27"/>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="27"/>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="27"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="27"/>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="27"/>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="27"/>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="27"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="27"/>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="27"/>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="27"/>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="27"/>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="27"/>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="27"/>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="27"/>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="28"/>
-      <c r="B9" t="s">
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="27"/>
+      <c r="B26" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="28"/>
-      <c r="B10" t="s">
+      <c r="C26" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="27"/>
+      <c r="B27" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="28"/>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="28"/>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="20"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="28"/>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="28"/>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="28"/>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="28"/>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="28"/>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="28"/>
-      <c r="B19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="28"/>
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="28"/>
-      <c r="B23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="C27" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/First-Idea.xlsx
+++ b/First-Idea.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272B739A-6CEF-3E4E-B931-1A63DDAD5403}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F157E9-94F1-6D4E-B03E-FF0534774DA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="460" windowWidth="18340" windowHeight="17540" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First-Idea" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +539,18 @@
   </si>
   <si>
     <t>吴恩达+李宏毅 video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS，AI，XD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时省略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -656,6 +668,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1007,27 +1022,27 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:15">
@@ -1037,11 +1052,11 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1062,11 +1077,11 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
@@ -1085,11 +1100,11 @@
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="4">
         <v>4</v>
       </c>
@@ -1108,11 +1123,11 @@
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="4">
         <v>4</v>
       </c>
@@ -1135,11 +1150,11 @@
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="4">
         <v>7</v>
       </c>
@@ -1158,11 +1173,11 @@
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="4">
         <v>7</v>
       </c>
@@ -1181,11 +1196,11 @@
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="4">
         <v>3</v>
       </c>
@@ -1204,11 +1219,11 @@
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="4">
         <v>5</v>
       </c>
@@ -1227,11 +1242,11 @@
       <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="4">
         <v>2</v>
       </c>
@@ -1252,11 +1267,11 @@
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="4">
         <v>2</v>
       </c>
@@ -1275,11 +1290,11 @@
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
@@ -1300,11 +1315,11 @@
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="4">
         <v>3</v>
       </c>
@@ -1319,11 +1334,11 @@
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="4">
         <v>1</v>
       </c>
@@ -1340,11 +1355,11 @@
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="4">
         <v>4</v>
       </c>
@@ -1359,11 +1374,11 @@
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="4">
         <v>4</v>
       </c>
@@ -1378,11 +1393,11 @@
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="4">
         <v>4</v>
       </c>
@@ -1397,11 +1412,11 @@
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="4">
         <v>1</v>
       </c>
@@ -1418,11 +1433,11 @@
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="4">
         <v>4</v>
       </c>
@@ -1438,11 +1453,11 @@
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="4">
         <v>3</v>
       </c>
@@ -1454,11 +1469,11 @@
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="4">
         <v>1</v>
       </c>
@@ -1474,11 +1489,11 @@
       <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="4">
         <v>4</v>
       </c>
@@ -1506,6 +1521,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1518,17 +1544,6 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1546,27 +1561,27 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:13">
@@ -1576,11 +1591,11 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1601,11 +1616,11 @@
       <c r="B4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="11">
         <v>2</v>
       </c>
@@ -1626,11 +1641,11 @@
       <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="11">
         <v>4</v>
       </c>
@@ -1649,11 +1664,11 @@
       <c r="B6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="11">
         <v>14</v>
       </c>
@@ -1674,11 +1689,11 @@
       <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="11">
         <v>3</v>
       </c>
@@ -1699,11 +1714,11 @@
       <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="11">
         <v>4</v>
       </c>
@@ -1724,11 +1739,11 @@
       <c r="B9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
@@ -1747,11 +1762,11 @@
       <c r="B10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="11">
         <v>2</v>
       </c>
@@ -1772,11 +1787,11 @@
       <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="11">
         <v>4</v>
       </c>
@@ -1795,11 +1810,11 @@
       <c r="B12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="11">
         <v>2</v>
       </c>
@@ -1820,11 +1835,11 @@
       <c r="B13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="11">
         <v>4</v>
       </c>
@@ -1841,11 +1856,11 @@
       <c r="B14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="11">
         <v>4</v>
       </c>
@@ -1860,11 +1875,11 @@
       <c r="B15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="11">
         <v>1</v>
       </c>
@@ -1881,11 +1896,11 @@
       <c r="B16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="11">
         <v>3</v>
       </c>
@@ -1900,11 +1915,11 @@
       <c r="B17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="11">
         <v>2</v>
       </c>
@@ -1921,11 +1936,11 @@
       <c r="B18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="11">
         <v>3</v>
       </c>
@@ -1940,11 +1955,11 @@
       <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="11">
         <v>1</v>
       </c>
@@ -1961,11 +1976,11 @@
       <c r="B20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="11">
         <v>3</v>
       </c>
@@ -1979,11 +1994,11 @@
       <c r="B21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="11">
         <v>1</v>
       </c>
@@ -1999,11 +2014,11 @@
       <c r="B22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="11">
         <v>4</v>
       </c>
@@ -2019,11 +2034,11 @@
       <c r="B23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="11">
         <v>0</v>
       </c>
@@ -2051,18 +2066,18 @@
     <row r="25" spans="1:9">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -2077,6 +2092,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -2090,18 +2117,6 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2111,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2126,10 +2141,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
@@ -2178,9 +2193,30 @@
         <v>47</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="27"/>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2191,7 +2227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -2203,16 +2239,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
@@ -2223,7 +2259,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
       <c r="B3" t="s">
         <v>105</v>
       </c>
@@ -2232,7 +2268,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" t="s">
         <v>111</v>
       </c>
@@ -2241,7 +2277,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" t="s">
         <v>112</v>
       </c>
@@ -2250,7 +2286,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -2259,11 +2295,11 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="23" t="s">
         <v>51</v>
       </c>
@@ -2272,7 +2308,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" t="s">
         <v>101</v>
       </c>
@@ -2281,7 +2317,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" t="s">
         <v>119</v>
       </c>
@@ -2290,11 +2326,11 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
         <v>113</v>
       </c>
@@ -2303,7 +2339,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>114</v>
       </c>
@@ -2312,7 +2348,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
         <v>115</v>
       </c>
@@ -2321,11 +2357,11 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" t="s">
         <v>69</v>
       </c>
@@ -2334,7 +2370,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -2343,7 +2379,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -2352,7 +2388,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" t="s">
         <v>106</v>
       </c>
@@ -2361,7 +2397,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B20" t="s">
@@ -2372,7 +2408,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -2381,7 +2417,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" t="s">
         <v>109</v>
       </c>
@@ -2390,7 +2426,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
       <c r="B23" t="s">
         <v>110</v>
       </c>
@@ -2410,7 +2446,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="28" t="s">
         <v>116</v>
       </c>
       <c r="B25" t="s">
@@ -2421,7 +2457,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" t="s">
         <v>117</v>
       </c>
@@ -2430,7 +2466,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
       <c r="B27" t="s">
         <v>118</v>
       </c>

--- a/First-Idea.xlsx
+++ b/First-Idea.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F157E9-94F1-6D4E-B03E-FF0534774DA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F5784D-5E70-B949-86BF-D06CE824BCE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First-Idea" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,7 +550,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂时省略</t>
+    <t>平面设计中的网格系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快思慢想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -668,6 +672,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,27 +1029,27 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:15">
@@ -1052,11 +1059,11 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1077,11 +1084,11 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
@@ -1100,11 +1107,11 @@
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="4">
         <v>4</v>
       </c>
@@ -1123,11 +1130,11 @@
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="4">
         <v>4</v>
       </c>
@@ -1150,11 +1157,11 @@
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="4">
         <v>7</v>
       </c>
@@ -1173,11 +1180,11 @@
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="4">
         <v>7</v>
       </c>
@@ -1196,11 +1203,11 @@
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="4">
         <v>3</v>
       </c>
@@ -1219,11 +1226,11 @@
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="4">
         <v>5</v>
       </c>
@@ -1242,11 +1249,11 @@
       <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="4">
         <v>2</v>
       </c>
@@ -1267,11 +1274,11 @@
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="4">
         <v>2</v>
       </c>
@@ -1290,11 +1297,11 @@
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
@@ -1315,11 +1322,11 @@
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="4">
         <v>3</v>
       </c>
@@ -1334,11 +1341,11 @@
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="4">
         <v>1</v>
       </c>
@@ -1355,11 +1362,11 @@
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="4">
         <v>4</v>
       </c>
@@ -1374,11 +1381,11 @@
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="4">
         <v>4</v>
       </c>
@@ -1393,11 +1400,11 @@
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="4">
         <v>4</v>
       </c>
@@ -1412,11 +1419,11 @@
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="4">
         <v>1</v>
       </c>
@@ -1433,11 +1440,11 @@
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="4">
         <v>4</v>
       </c>
@@ -1453,11 +1460,11 @@
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="4">
         <v>3</v>
       </c>
@@ -1469,11 +1476,11 @@
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="4">
         <v>1</v>
       </c>
@@ -1489,11 +1496,11 @@
       <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="4">
         <v>4</v>
       </c>
@@ -1561,27 +1568,27 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:13">
@@ -1591,11 +1598,11 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1616,11 +1623,11 @@
       <c r="B4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="11">
         <v>2</v>
       </c>
@@ -1641,11 +1648,11 @@
       <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="11">
         <v>4</v>
       </c>
@@ -1664,11 +1671,11 @@
       <c r="B6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11">
         <v>14</v>
       </c>
@@ -1689,11 +1696,11 @@
       <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="11">
         <v>3</v>
       </c>
@@ -1714,11 +1721,11 @@
       <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="11">
         <v>4</v>
       </c>
@@ -1739,11 +1746,11 @@
       <c r="B9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
@@ -1762,11 +1769,11 @@
       <c r="B10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="11">
         <v>2</v>
       </c>
@@ -1787,11 +1794,11 @@
       <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="11">
         <v>4</v>
       </c>
@@ -1810,11 +1817,11 @@
       <c r="B12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="11">
         <v>2</v>
       </c>
@@ -1835,11 +1842,11 @@
       <c r="B13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="11">
         <v>4</v>
       </c>
@@ -1856,11 +1863,11 @@
       <c r="B14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="11">
         <v>4</v>
       </c>
@@ -1875,11 +1882,11 @@
       <c r="B15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="11">
         <v>1</v>
       </c>
@@ -1896,11 +1903,11 @@
       <c r="B16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="11">
         <v>3</v>
       </c>
@@ -1915,11 +1922,11 @@
       <c r="B17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="11">
         <v>2</v>
       </c>
@@ -1936,11 +1943,11 @@
       <c r="B18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="11">
         <v>3</v>
       </c>
@@ -1955,11 +1962,11 @@
       <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="11">
         <v>1</v>
       </c>
@@ -1976,11 +1983,11 @@
       <c r="B20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="11">
         <v>3</v>
       </c>
@@ -1994,11 +2001,11 @@
       <c r="B21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="11">
         <v>1</v>
       </c>
@@ -2014,11 +2021,11 @@
       <c r="B22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="11">
         <v>4</v>
       </c>
@@ -2034,11 +2041,11 @@
       <c r="B23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="11">
         <v>0</v>
       </c>
@@ -2066,18 +2073,18 @@
     <row r="25" spans="1:9">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -2126,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2141,82 +2148,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="28"/>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="28"/>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="21" t="s">
+      <c r="C5" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>99</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C7" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="27"/>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2239,16 +2255,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
@@ -2259,7 +2275,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" t="s">
         <v>105</v>
       </c>
@@ -2268,7 +2284,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" t="s">
         <v>111</v>
       </c>
@@ -2277,7 +2293,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" t="s">
         <v>112</v>
       </c>
@@ -2286,7 +2302,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -2295,11 +2311,11 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>51</v>
       </c>
@@ -2308,7 +2324,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" t="s">
         <v>101</v>
       </c>
@@ -2317,7 +2333,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" t="s">
         <v>119</v>
       </c>
@@ -2326,11 +2342,11 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" t="s">
         <v>113</v>
       </c>
@@ -2339,7 +2355,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" t="s">
         <v>114</v>
       </c>
@@ -2348,7 +2364,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" t="s">
         <v>115</v>
       </c>
@@ -2357,11 +2373,11 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" t="s">
         <v>69</v>
       </c>
@@ -2370,7 +2386,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -2379,7 +2395,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -2388,7 +2404,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" t="s">
         <v>106</v>
       </c>
@@ -2397,7 +2413,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>107</v>
       </c>
       <c r="B20" t="s">
@@ -2408,7 +2424,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -2417,7 +2433,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" t="s">
         <v>109</v>
       </c>
@@ -2426,7 +2442,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" t="s">
         <v>110</v>
       </c>
@@ -2446,7 +2462,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B25" t="s">
@@ -2457,7 +2473,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" t="s">
         <v>117</v>
       </c>
@@ -2466,7 +2482,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" t="s">
         <v>118</v>
       </c>

--- a/First-Idea.xlsx
+++ b/First-Idea.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F5784D-5E70-B949-86BF-D06CE824BCE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="First-Idea" sheetId="4" r:id="rId1"/>
@@ -13,8 +12,9 @@
     <sheet name=" Bachelor" sheetId="2" r:id="rId3"/>
     <sheet name="CP" sheetId="6" r:id="rId4"/>
     <sheet name="AI" sheetId="7" r:id="rId5"/>
+    <sheet name="PCB" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,27 +546,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>平面设计中的网格系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快思慢想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrintedCircuitBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML，CSS，JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PS，AI，XD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平面设计中的网格系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快思慢想</t>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -678,6 +702,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -970,27 +1006,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -998,7 +1034,7 @@
         <v>250619100001</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -1006,7 +1042,7 @@
         <v>182215</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1019,51 +1055,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1077,18 +1113,18 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
@@ -1100,18 +1136,18 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="4">
         <v>4</v>
       </c>
@@ -1123,18 +1159,18 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="4">
         <v>4</v>
       </c>
@@ -1150,18 +1186,18 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="4">
         <v>7</v>
       </c>
@@ -1173,18 +1209,18 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="4">
         <v>7</v>
       </c>
@@ -1196,18 +1232,18 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="4">
         <v>3</v>
       </c>
@@ -1219,18 +1255,18 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="4">
         <v>5</v>
       </c>
@@ -1244,16 +1280,16 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="4">
         <v>2</v>
       </c>
@@ -1267,18 +1303,18 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="4">
         <v>2</v>
       </c>
@@ -1292,16 +1328,16 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
@@ -1315,18 +1351,18 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>9</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="4">
         <v>3</v>
       </c>
@@ -1336,16 +1372,16 @@
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="4">
         <v>1</v>
       </c>
@@ -1355,18 +1391,18 @@
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="4">
         <v>4</v>
       </c>
@@ -1374,18 +1410,18 @@
       <c r="H16" s="4"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="4">
         <v>4</v>
       </c>
@@ -1393,37 +1429,35 @@
       <c r="H17" s="4"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="4">
         <v>4</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="G18" s="11"/>
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="4">
         <v>1</v>
       </c>
@@ -1433,18 +1467,18 @@
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="4">
         <v>4</v>
       </c>
@@ -1453,34 +1487,34 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>14</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="4">
         <v>3</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="4">
         <v>1</v>
       </c>
@@ -1489,18 +1523,18 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>15</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="4">
         <v>4</v>
       </c>
@@ -1509,7 +1543,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1528,17 +1562,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1551,6 +1574,17 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,51 +1592,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1616,18 +1650,18 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="11">
         <v>2</v>
       </c>
@@ -1641,18 +1675,18 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="11">
         <v>4</v>
       </c>
@@ -1664,18 +1698,18 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="11">
         <v>14</v>
       </c>
@@ -1689,18 +1723,18 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="11">
         <v>3</v>
       </c>
@@ -1714,18 +1748,18 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="11">
         <v>4</v>
       </c>
@@ -1739,24 +1773,22 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="2"/>
       <c r="J9" s="6"/>
@@ -1764,16 +1796,16 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="11">
         <v>2</v>
       </c>
@@ -1787,24 +1819,22 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="11">
         <v>4</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="2"/>
       <c r="J11" s="6"/>
@@ -1812,16 +1842,16 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="11">
         <v>2</v>
       </c>
@@ -1835,18 +1865,18 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="11">
         <v>4</v>
       </c>
@@ -1856,18 +1886,18 @@
       <c r="H13" s="11"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="11">
         <v>4</v>
       </c>
@@ -1877,16 +1907,16 @@
       <c r="H14" s="11"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="11">
         <v>1</v>
       </c>
@@ -1896,18 +1926,18 @@
       <c r="H15" s="11"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="11">
         <v>3</v>
       </c>
@@ -1917,16 +1947,16 @@
       <c r="H16" s="11"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="11">
         <v>2</v>
       </c>
@@ -1936,18 +1966,18 @@
       <c r="H17" s="11"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="11">
         <v>3</v>
       </c>
@@ -1957,16 +1987,16 @@
       <c r="H18" s="11"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="11">
         <v>1</v>
       </c>
@@ -1976,18 +2006,18 @@
       <c r="H19" s="11"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="11">
         <v>3</v>
       </c>
@@ -1996,16 +2026,16 @@
       </c>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="11">
         <v>1</v>
       </c>
@@ -2014,18 +2044,18 @@
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="11">
         <v>4</v>
       </c>
@@ -2034,18 +2064,18 @@
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>14</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="11">
         <v>0</v>
       </c>
@@ -2054,7 +2084,7 @@
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2070,25 +2100,25 @@
       </c>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2099,18 +2129,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -2124,6 +2142,18 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2132,139 +2162,180 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="10"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="10"/>
+    <col min="4" max="4" width="8.875" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="28" t="s">
+      <c r="D1" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="28"/>
-      <c r="B3" t="s">
+      <c r="C4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="28"/>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="21" t="s">
+      <c r="C5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="21" t="s">
+      <c r="C6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>99</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>123</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>47</v>
+      <c r="C9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="27">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="10"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="10"/>
+    <col min="4" max="4" width="8.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="29" t="s">
+      <c r="D1" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
@@ -2273,147 +2344,192 @@
       <c r="C2" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="29"/>
+      <c r="D2" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
       <c r="B3" t="s">
         <v>105</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="29"/>
+      <c r="D3" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
       <c r="B4" t="s">
         <v>111</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="29"/>
+      <c r="D4" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
       <c r="B5" t="s">
         <v>112</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="29"/>
+      <c r="D5" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="29"/>
+      <c r="D6" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
       <c r="B8" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="29"/>
+      <c r="D8" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
       <c r="B9" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="29"/>
+      <c r="D9" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
       <c r="B10" t="s">
         <v>119</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="29"/>
+      <c r="D10" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="29"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
       <c r="B12" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="29"/>
+      <c r="D12" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
       <c r="B13" t="s">
         <v>114</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="29"/>
+      <c r="D13" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
       <c r="B14" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="29"/>
+      <c r="D14" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="29"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
       <c r="B16" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="29"/>
+      <c r="D16" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="29"/>
+      <c r="D17" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="29"/>
+      <c r="D18" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
       <c r="B19" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="29" t="s">
+      <c r="D19" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
         <v>107</v>
       </c>
       <c r="B20" t="s">
@@ -2422,35 +2538,47 @@
       <c r="C20" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="29"/>
+      <c r="D20" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="29"/>
+      <c r="D21" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
       <c r="B22" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="29"/>
+      <c r="D22" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
       <c r="B23" t="s">
         <v>110</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>125</v>
       </c>
@@ -2460,9 +2588,12 @@
       <c r="C24" s="19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="29" t="s">
+      <c r="D24" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="33" t="s">
         <v>116</v>
       </c>
       <c r="B25" t="s">
@@ -2471,30 +2602,39 @@
       <c r="C25" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="29"/>
+      <c r="D25" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
       <c r="B26" t="s">
         <v>117</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="29"/>
+      <c r="D26" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
       <c r="B27" t="s">
         <v>118</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D27" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
     </row>
@@ -2508,4 +2648,68 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="21"/>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/First-Idea.xlsx
+++ b/First-Idea.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -579,6 +579,14 @@
   </si>
   <si>
     <t>顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python3网络爬虫开发实战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -705,6 +713,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1059,33 +1076,33 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1095,11 +1112,11 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1120,11 +1137,11 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
@@ -1143,11 +1160,11 @@
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="4">
         <v>4</v>
       </c>
@@ -1166,11 +1183,11 @@
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="4">
         <v>4</v>
       </c>
@@ -1193,11 +1210,11 @@
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="4">
         <v>7</v>
       </c>
@@ -1216,11 +1233,11 @@
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="4">
         <v>7</v>
       </c>
@@ -1239,11 +1256,11 @@
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="4">
         <v>3</v>
       </c>
@@ -1262,11 +1279,11 @@
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="4">
         <v>5</v>
       </c>
@@ -1285,11 +1302,11 @@
       <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="4">
         <v>2</v>
       </c>
@@ -1310,11 +1327,11 @@
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="4">
         <v>2</v>
       </c>
@@ -1333,11 +1350,11 @@
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
@@ -1358,11 +1375,11 @@
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="4">
         <v>3</v>
       </c>
@@ -1377,11 +1394,11 @@
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="4">
         <v>1</v>
       </c>
@@ -1398,11 +1415,11 @@
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="4">
         <v>4</v>
       </c>
@@ -1417,11 +1434,11 @@
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="4">
         <v>4</v>
       </c>
@@ -1436,11 +1453,11 @@
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="4">
         <v>4</v>
       </c>
@@ -1453,11 +1470,11 @@
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="4">
         <v>1</v>
       </c>
@@ -1474,11 +1491,11 @@
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="4">
         <v>4</v>
       </c>
@@ -1494,11 +1511,11 @@
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="4">
         <v>3</v>
       </c>
@@ -1510,11 +1527,11 @@
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="4">
         <v>1</v>
       </c>
@@ -1530,11 +1547,11 @@
       <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="4">
         <v>4</v>
       </c>
@@ -1602,27 +1619,27 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1632,11 +1649,11 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1657,11 +1674,11 @@
       <c r="B4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="11">
         <v>2</v>
       </c>
@@ -1682,11 +1699,11 @@
       <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="11">
         <v>4</v>
       </c>
@@ -1705,11 +1722,11 @@
       <c r="B6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="11">
         <v>14</v>
       </c>
@@ -1730,11 +1747,11 @@
       <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="11">
         <v>3</v>
       </c>
@@ -1755,11 +1772,11 @@
       <c r="B8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="11">
         <v>4</v>
       </c>
@@ -1780,11 +1797,11 @@
       <c r="B9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
@@ -1801,11 +1818,11 @@
       <c r="B10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="11">
         <v>2</v>
       </c>
@@ -1826,11 +1843,11 @@
       <c r="B11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="11">
         <v>4</v>
       </c>
@@ -1847,11 +1864,11 @@
       <c r="B12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="11">
         <v>2</v>
       </c>
@@ -1872,11 +1889,11 @@
       <c r="B13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="11">
         <v>4</v>
       </c>
@@ -1893,11 +1910,11 @@
       <c r="B14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="11">
         <v>4</v>
       </c>
@@ -1912,11 +1929,11 @@
       <c r="B15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="11">
         <v>1</v>
       </c>
@@ -1933,11 +1950,11 @@
       <c r="B16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="11">
         <v>3</v>
       </c>
@@ -1952,11 +1969,11 @@
       <c r="B17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="11">
         <v>2</v>
       </c>
@@ -1973,11 +1990,11 @@
       <c r="B18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="11">
         <v>3</v>
       </c>
@@ -1992,11 +2009,11 @@
       <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="11">
         <v>1</v>
       </c>
@@ -2013,11 +2030,11 @@
       <c r="B20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="11">
         <v>3</v>
       </c>
@@ -2031,11 +2048,11 @@
       <c r="B21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="11">
         <v>1</v>
       </c>
@@ -2051,11 +2068,11 @@
       <c r="B22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="11">
         <v>4</v>
       </c>
@@ -2071,11 +2088,11 @@
       <c r="B23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="11">
         <v>0</v>
       </c>
@@ -2103,18 +2120,18 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -2163,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2178,10 +2195,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
@@ -2190,7 +2207,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -2204,7 +2221,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="35"/>
       <c r="B3" t="s">
         <v>133</v>
       </c>
@@ -2216,7 +2233,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="35"/>
       <c r="B4" t="s">
         <v>129</v>
       </c>
@@ -2228,7 +2245,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="35"/>
       <c r="B5" t="s">
         <v>130</v>
       </c>
@@ -2240,25 +2257,25 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="27">
-        <v>3</v>
+      <c r="A6" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>47</v>
@@ -2268,30 +2285,44 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>99</v>
+      <c r="A8" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>123</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="27">
+      <c r="C10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="27">
         <v>2</v>
       </c>
     </row>
@@ -2323,10 +2354,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
@@ -2335,7 +2366,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
@@ -2349,7 +2380,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
+      <c r="A3" s="36"/>
       <c r="B3" t="s">
         <v>105</v>
       </c>
@@ -2361,7 +2392,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="36"/>
       <c r="B4" t="s">
         <v>111</v>
       </c>
@@ -2373,7 +2404,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
+      <c r="A5" s="36"/>
       <c r="B5" t="s">
         <v>112</v>
       </c>
@@ -2385,7 +2416,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
+      <c r="A6" s="36"/>
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -2397,11 +2428,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="36"/>
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="23" t="s">
         <v>51</v>
       </c>
@@ -2413,7 +2444,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="36"/>
       <c r="B9" t="s">
         <v>101</v>
       </c>
@@ -2425,7 +2456,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="36"/>
       <c r="B10" t="s">
         <v>119</v>
       </c>
@@ -2437,11 +2468,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="36"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="36"/>
       <c r="B12" t="s">
         <v>113</v>
       </c>
@@ -2453,7 +2484,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
+      <c r="A13" s="36"/>
       <c r="B13" t="s">
         <v>114</v>
       </c>
@@ -2465,7 +2496,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="36"/>
       <c r="B14" t="s">
         <v>115</v>
       </c>
@@ -2477,11 +2508,11 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+      <c r="A15" s="36"/>
       <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
+      <c r="A16" s="36"/>
       <c r="B16" t="s">
         <v>69</v>
       </c>
@@ -2493,7 +2524,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
+      <c r="A17" s="36"/>
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -2505,7 +2536,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -2517,7 +2548,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+      <c r="A19" s="36"/>
       <c r="B19" t="s">
         <v>106</v>
       </c>
@@ -2529,7 +2560,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="36" t="s">
         <v>107</v>
       </c>
       <c r="B20" t="s">
@@ -2543,7 +2574,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="36"/>
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -2555,7 +2586,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+      <c r="A22" s="36"/>
       <c r="B22" t="s">
         <v>109</v>
       </c>
@@ -2567,7 +2598,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="36"/>
       <c r="B23" t="s">
         <v>110</v>
       </c>
@@ -2593,7 +2624,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B25" t="s">
@@ -2607,7 +2638,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
+      <c r="A26" s="36"/>
       <c r="B26" t="s">
         <v>117</v>
       </c>
@@ -2619,7 +2650,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
+      <c r="A27" s="36"/>
       <c r="B27" t="s">
         <v>118</v>
       </c>
@@ -2667,10 +2698,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="26" t="s">
         <v>44</v>
       </c>

--- a/First-Idea.xlsx
+++ b/First-Idea.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41799EC7-DB25-7A46-94C4-3D0D0E4D190B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="13220" yWindow="900" windowWidth="21620" windowHeight="17540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First-Idea" sheetId="4" r:id="rId1"/>
@@ -19,11 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -127,14 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>思想道德修养与法律基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,18 +575,26 @@
   </si>
   <si>
     <t>Python3网络爬虫开发实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02141</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,45 +1019,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="8">
         <v>250619100001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4">
         <v>182215</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1072,18 +1068,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -1093,9 +1089,9 @@
       <c r="G1" s="34"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1105,7 +1101,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="6"/>
@@ -1130,7 +1126,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1138,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
@@ -1153,7 +1149,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -1161,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -1176,7 +1172,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -1184,7 +1180,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -1192,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="2"/>
@@ -1203,7 +1199,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -1211,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -1226,7 +1222,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -1234,7 +1230,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -1249,7 +1245,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1257,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -1272,7 +1268,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -1280,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -1288,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="2"/>
@@ -1297,13 +1293,13 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="13"/>
       <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -1311,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="2"/>
@@ -1320,7 +1316,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -1328,7 +1324,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -1336,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
@@ -1345,13 +1341,13 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="13"/>
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -1359,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="2"/>
@@ -1368,7 +1364,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="8">
         <v>9</v>
       </c>
@@ -1376,7 +1372,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -1384,18 +1380,18 @@
         <v>3</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="13"/>
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -1403,12 +1399,12 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -1416,7 +1412,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -1427,7 +1423,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -1435,7 +1431,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -1446,7 +1442,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -1454,7 +1450,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -1465,13 +1461,13 @@
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="13"/>
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -1479,12 +1475,12 @@
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="8">
         <v>13</v>
       </c>
@@ -1492,7 +1488,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -1500,11 +1496,11 @@
         <v>4</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="8">
         <v>14</v>
       </c>
@@ -1512,7 +1508,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -1522,13 +1518,13 @@
       <c r="G21" s="11"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="13"/>
-      <c r="B22" s="12" t="s">
-        <v>24</v>
+      <c r="B22" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -1536,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="8">
         <v>15</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>25</v>
+      <c r="B23" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>5</v>
@@ -1556,11 +1552,11 @@
         <v>4</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1573,12 +1569,23 @@
         <v>68</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1591,17 +1598,6 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1609,18 +1605,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -1630,9 +1626,9 @@
       <c r="G1" s="34"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -1642,7 +1638,7 @@
       <c r="G2" s="34"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="6"/>
@@ -1667,15 +1663,15 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
@@ -1683,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="2"/>
@@ -1692,15 +1688,15 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="14">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -1715,15 +1711,15 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="14">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -1731,7 +1727,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="2"/>
@@ -1740,15 +1736,15 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="14">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -1756,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="2"/>
@@ -1765,15 +1761,15 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="14">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -1781,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="2"/>
@@ -1790,15 +1786,15 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="15">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>69</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -1813,13 +1809,13 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="7"/>
       <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>70</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -1827,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="2"/>
@@ -1836,15 +1832,15 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="15">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>71</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -1859,13 +1855,13 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>74</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -1873,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="2"/>
@@ -1882,15 +1878,15 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="15">
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -1898,20 +1894,20 @@
         <v>4</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="15">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>79</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -1919,18 +1915,18 @@
         <v>4</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="7"/>
       <c r="B15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>78</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>80</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -1938,20 +1934,20 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="15">
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>81</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>83</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -1959,18 +1955,18 @@
         <v>3</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>82</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>84</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -1978,20 +1974,20 @@
         <v>2</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="15">
         <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>85</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>87</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -1999,18 +1995,18 @@
         <v>3</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="7"/>
       <c r="B19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>86</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -2018,20 +2014,20 @@
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="15">
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -2039,17 +2035,17 @@
         <v>3</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -2057,19 +2053,19 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="15">
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>91</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>93</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -2077,19 +2073,19 @@
         <v>4</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="15">
         <v>14</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>92</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>94</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -2097,11 +2093,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2113,11 +2109,11 @@
         <v>64</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="33"/>
@@ -2126,7 +2122,7 @@
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="33"/>
@@ -2135,7 +2131,7 @@
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2146,6 +2142,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -2159,18 +2167,6 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2179,148 +2175,148 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="10"/>
-    <col min="4" max="4" width="8.875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="10"/>
+    <col min="4" max="4" width="8.83203125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>132</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>134</v>
       </c>
       <c r="D2" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="35"/>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="35"/>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="35"/>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="27">
         <v>2</v>
@@ -2338,334 +2334,334 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="10"/>
-    <col min="4" max="4" width="8.875" style="27"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="10"/>
+    <col min="4" max="4" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="36"/>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="36"/>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="36"/>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="36"/>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="36"/>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="36"/>
       <c r="B8" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="36"/>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="36"/>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="36"/>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="36"/>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="36"/>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="36"/>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="36"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="36"/>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="36"/>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="36"/>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="36"/>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="36"/>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="36"/>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="36"/>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="36"/>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="36"/>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
     </row>
@@ -2682,57 +2678,57 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="21"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="21"/>
       <c r="C3" s="26"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="21"/>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="21"/>
       <c r="C5" s="26"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="21"/>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="C8" s="26"/>
     </row>
   </sheetData>

--- a/First-Idea.xlsx
+++ b/First-Idea.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41799EC7-DB25-7A46-94C4-3D0D0E4D190B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05DBAAF-4B40-EB45-AB4E-22C69D21258F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="900" windowWidth="21620" windowHeight="17540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6740" yWindow="460" windowWidth="21620" windowHeight="17540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First-Idea" sheetId="4" r:id="rId1"/>
@@ -14,18 +14,24 @@
     <sheet name="CP" sheetId="6" r:id="rId4"/>
     <sheet name="AI" sheetId="7" r:id="rId5"/>
     <sheet name="PCB" sheetId="8" r:id="rId6"/>
+    <sheet name="E" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="137">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,26 +416,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Django</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>React</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>python cookbook</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dart &amp; Flutter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算机基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,22 +500,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bootstrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BootstrapWeb设计与开发实战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英语基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全国等级英语考试三级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴恩达+李宏毅 video</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,26 +516,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>快思慢想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PrintedCircuitBoard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HTML，CSS，JS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS，AI，XD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,10 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Python3网络爬虫开发实战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,6 +541,42 @@
   </si>
   <si>
     <t>02141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArtificialIntelligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程语言基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发库基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript高级程序设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS，AI，XD video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS权威指南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +588,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +606,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -687,58 +689,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,34 +1073,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:15">
@@ -1108,11 +1110,11 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1133,11 +1135,11 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
@@ -1156,11 +1158,11 @@
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="4">
         <v>4</v>
       </c>
@@ -1179,11 +1181,11 @@
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="4">
         <v>4</v>
       </c>
@@ -1206,11 +1208,11 @@
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="4">
         <v>7</v>
       </c>
@@ -1229,11 +1231,11 @@
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="4">
         <v>7</v>
       </c>
@@ -1252,11 +1254,11 @@
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="4">
         <v>3</v>
       </c>
@@ -1275,11 +1277,11 @@
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="4">
         <v>5</v>
       </c>
@@ -1298,11 +1300,11 @@
       <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="4">
         <v>2</v>
       </c>
@@ -1323,11 +1325,11 @@
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="4">
         <v>2</v>
       </c>
@@ -1346,11 +1348,11 @@
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
@@ -1371,11 +1373,11 @@
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="4">
         <v>3</v>
       </c>
@@ -1390,11 +1392,11 @@
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="4">
         <v>1</v>
       </c>
@@ -1411,11 +1413,11 @@
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="4">
         <v>4</v>
       </c>
@@ -1430,11 +1432,11 @@
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="4">
         <v>4</v>
       </c>
@@ -1449,11 +1451,11 @@
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="4">
         <v>4</v>
       </c>
@@ -1466,11 +1468,11 @@
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="4">
         <v>1</v>
       </c>
@@ -1487,11 +1489,11 @@
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="4">
         <v>4</v>
       </c>
@@ -1507,11 +1509,11 @@
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="4">
         <v>3</v>
       </c>
@@ -1521,13 +1523,13 @@
     <row r="22" spans="1:9">
       <c r="A22" s="13"/>
       <c r="B22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="4">
         <v>1</v>
       </c>
@@ -1541,13 +1543,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="4">
         <v>4</v>
       </c>
@@ -1575,17 +1577,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1598,6 +1589,17 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1615,27 +1617,27 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:13">
@@ -1645,11 +1647,11 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1670,11 +1672,11 @@
       <c r="B4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="11">
         <v>2</v>
       </c>
@@ -1695,11 +1697,11 @@
       <c r="B5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="11">
         <v>4</v>
       </c>
@@ -1718,11 +1720,11 @@
       <c r="B6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="11">
         <v>14</v>
       </c>
@@ -1743,11 +1745,11 @@
       <c r="B7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="11">
         <v>3</v>
       </c>
@@ -1768,11 +1770,11 @@
       <c r="B8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="11">
         <v>4</v>
       </c>
@@ -1793,11 +1795,11 @@
       <c r="B9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
@@ -1814,11 +1816,11 @@
       <c r="B10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="11">
         <v>2</v>
       </c>
@@ -1839,11 +1841,11 @@
       <c r="B11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="11">
         <v>4</v>
       </c>
@@ -1860,11 +1862,11 @@
       <c r="B12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="11">
         <v>2</v>
       </c>
@@ -1885,11 +1887,11 @@
       <c r="B13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="11">
         <v>4</v>
       </c>
@@ -1906,11 +1908,11 @@
       <c r="B14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="11">
         <v>4</v>
       </c>
@@ -1925,11 +1927,11 @@
       <c r="B15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="11">
         <v>1</v>
       </c>
@@ -1946,11 +1948,11 @@
       <c r="B16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="11">
         <v>3</v>
       </c>
@@ -1965,11 +1967,11 @@
       <c r="B17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="11">
         <v>2</v>
       </c>
@@ -1986,11 +1988,11 @@
       <c r="B18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="11">
         <v>3</v>
       </c>
@@ -2005,11 +2007,11 @@
       <c r="B19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="11">
         <v>1</v>
       </c>
@@ -2026,11 +2028,11 @@
       <c r="B20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="11">
         <v>3</v>
       </c>
@@ -2044,11 +2046,11 @@
       <c r="B21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="11">
         <v>1</v>
       </c>
@@ -2064,11 +2066,11 @@
       <c r="B22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="11">
         <v>4</v>
       </c>
@@ -2084,11 +2086,11 @@
       <c r="B23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="11">
         <v>0</v>
       </c>
@@ -2116,18 +2118,18 @@
     <row r="25" spans="1:9">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -2142,18 +2144,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -2167,6 +2157,18 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2176,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2187,145 +2189,146 @@
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="10"/>
-    <col min="4" max="4" width="8.83203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>133</v>
+      <c r="D1" s="25" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="27">
+        <v>97</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" s="34" customFormat="1">
       <c r="A3" s="35"/>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="27">
+      <c r="B3" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="35"/>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="27">
-        <v>4</v>
-      </c>
-    </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35"/>
+      <c r="A5" s="32"/>
       <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="27">
+        <v>120</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="30">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="32"/>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="32"/>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="32"/>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="32"/>
+      <c r="B10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="27">
-        <v>2</v>
-      </c>
+    <row r="11" spans="1:4">
+      <c r="B11" s="6"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2335,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2346,331 +2349,330 @@
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="10"/>
-    <col min="4" max="4" width="8.83203125" style="27"/>
+    <col min="4" max="4" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="31"/>
       <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>134</v>
+      <c r="D1" s="25" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="36" t="s">
-        <v>101</v>
+      <c r="A2" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="36"/>
+      <c r="A3" s="32"/>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="36"/>
+      <c r="A4" s="32"/>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="36"/>
+      <c r="A5" s="32"/>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="36"/>
+      <c r="A6" s="32"/>
       <c r="B6" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="32"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="32"/>
+      <c r="B8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="32"/>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="32"/>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="32"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="32"/>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="32"/>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="32"/>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="32"/>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="32"/>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="32"/>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="36"/>
-      <c r="C7" s="22"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="36"/>
-      <c r="B8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="27">
+    <row r="19" spans="1:4">
+      <c r="A19" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="32"/>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="36"/>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="27">
+    <row r="21" spans="1:4">
+      <c r="A21" s="32"/>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="36"/>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="27">
+    <row r="22" spans="1:4">
+      <c r="A22" s="32"/>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="36"/>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="36"/>
-      <c r="B12" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="32"/>
+      <c r="B25" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="36"/>
-      <c r="B13" t="s">
+      <c r="C25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="32"/>
+      <c r="B26" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="36"/>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="36"/>
-      <c r="C15" s="17"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="36"/>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="36"/>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="27">
+      <c r="C26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="36"/>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="36"/>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="36"/>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="36"/>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="36"/>
-      <c r="B23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="36"/>
-      <c r="B26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="36"/>
-      <c r="B27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="27">
-        <v>6</v>
-      </c>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2682,7 +2684,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2690,46 +2692,46 @@
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="26" t="s">
+      <c r="A1" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>135</v>
+      <c r="D1" s="25" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="21"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="19"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="21"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="19"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="21"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="19"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="21"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="19"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="21"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="19"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="C7" s="26"/>
+      <c r="C7" s="24"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="26"/>
+      <c r="C8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2739,4 +2741,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB24B1-9F30-3445-B4D0-C244BD42E129}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="19"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="19"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/First-Idea.xlsx
+++ b/First-Idea.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05DBAAF-4B40-EB45-AB4E-22C69D21258F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C7B197-F197-5746-97BC-44F94E458B70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6740" yWindow="460" windowWidth="21620" windowHeight="17540" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="139">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,14 @@
   </si>
   <si>
     <t>CSS权威指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaTex入门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -718,6 +726,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -733,14 +753,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1080,27 +1094,27 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:15">
@@ -1110,11 +1124,11 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1135,11 +1149,11 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
@@ -1158,11 +1172,11 @@
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="4">
         <v>4</v>
       </c>
@@ -1181,11 +1195,11 @@
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="4">
         <v>4</v>
       </c>
@@ -1208,11 +1222,11 @@
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="4">
         <v>7</v>
       </c>
@@ -1231,11 +1245,11 @@
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="4">
         <v>7</v>
       </c>
@@ -1254,11 +1268,11 @@
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="4">
         <v>3</v>
       </c>
@@ -1277,11 +1291,11 @@
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="4">
         <v>5</v>
       </c>
@@ -1300,11 +1314,11 @@
       <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="4">
         <v>2</v>
       </c>
@@ -1325,11 +1339,11 @@
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="4">
         <v>2</v>
       </c>
@@ -1348,11 +1362,11 @@
       <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
@@ -1373,11 +1387,11 @@
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="4">
         <v>3</v>
       </c>
@@ -1392,11 +1406,11 @@
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="4">
         <v>1</v>
       </c>
@@ -1413,11 +1427,11 @@
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="4">
         <v>4</v>
       </c>
@@ -1432,11 +1446,11 @@
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="4">
         <v>4</v>
       </c>
@@ -1451,11 +1465,11 @@
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="4">
         <v>4</v>
       </c>
@@ -1468,11 +1482,11 @@
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="4">
         <v>1</v>
       </c>
@@ -1489,11 +1503,11 @@
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="4">
         <v>4</v>
       </c>
@@ -1509,11 +1523,11 @@
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="4">
         <v>3</v>
       </c>
@@ -1525,11 +1539,11 @@
       <c r="B22" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="4">
         <v>1</v>
       </c>
@@ -1545,11 +1559,11 @@
       <c r="B23" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="4">
         <v>4</v>
       </c>
@@ -1577,6 +1591,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
@@ -1589,17 +1614,6 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1617,27 +1631,27 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:13">
@@ -1647,11 +1661,11 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1672,11 +1686,11 @@
       <c r="B4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="11">
         <v>2</v>
       </c>
@@ -1697,11 +1711,11 @@
       <c r="B5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="11">
         <v>4</v>
       </c>
@@ -1720,11 +1734,11 @@
       <c r="B6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="11">
         <v>14</v>
       </c>
@@ -1745,11 +1759,11 @@
       <c r="B7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="11">
         <v>3</v>
       </c>
@@ -1770,11 +1784,11 @@
       <c r="B8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="11">
         <v>4</v>
       </c>
@@ -1795,11 +1809,11 @@
       <c r="B9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
@@ -1816,11 +1830,11 @@
       <c r="B10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="11">
         <v>2</v>
       </c>
@@ -1841,11 +1855,11 @@
       <c r="B11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="11">
         <v>4</v>
       </c>
@@ -1862,11 +1876,11 @@
       <c r="B12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="11">
         <v>2</v>
       </c>
@@ -1887,11 +1901,11 @@
       <c r="B13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="11">
         <v>4</v>
       </c>
@@ -1908,11 +1922,11 @@
       <c r="B14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="11">
         <v>4</v>
       </c>
@@ -1927,11 +1941,11 @@
       <c r="B15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="11">
         <v>1</v>
       </c>
@@ -1948,11 +1962,11 @@
       <c r="B16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="11">
         <v>3</v>
       </c>
@@ -1967,11 +1981,11 @@
       <c r="B17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="11">
         <v>2</v>
       </c>
@@ -1988,11 +2002,11 @@
       <c r="B18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="11">
         <v>3</v>
       </c>
@@ -2007,11 +2021,11 @@
       <c r="B19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="11">
         <v>1</v>
       </c>
@@ -2028,11 +2042,11 @@
       <c r="B20" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="11">
         <v>3</v>
       </c>
@@ -2046,11 +2060,11 @@
       <c r="B21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="11">
         <v>1</v>
       </c>
@@ -2066,11 +2080,11 @@
       <c r="B22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="11">
         <v>4</v>
       </c>
@@ -2086,11 +2100,11 @@
       <c r="B23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="11">
         <v>0</v>
       </c>
@@ -2118,18 +2132,18 @@
     <row r="25" spans="1:9">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -2144,6 +2158,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -2157,18 +2183,6 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2181,7 +2195,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2193,10 +2207,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
@@ -2205,7 +2219,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -2218,20 +2232,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="34" customFormat="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="1:4" s="31" customFormat="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="30" t="s">
         <v>134</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="36" t="s">
         <v>119</v>
       </c>
       <c r="B4" t="s">
@@ -2245,7 +2259,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="32"/>
+      <c r="A5" s="36"/>
       <c r="B5" t="s">
         <v>120</v>
       </c>
@@ -2257,7 +2271,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="36" t="s">
         <v>133</v>
       </c>
       <c r="B6" t="s">
@@ -2271,7 +2285,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32"/>
+      <c r="A7" s="36"/>
       <c r="B7" t="s">
         <v>116</v>
       </c>
@@ -2283,7 +2297,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
+      <c r="A8" s="36"/>
       <c r="B8" t="s">
         <v>114</v>
       </c>
@@ -2295,7 +2309,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32"/>
+      <c r="A9" s="36"/>
       <c r="B9" t="s">
         <v>115</v>
       </c>
@@ -2307,7 +2321,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="32"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="6" t="s">
         <v>125</v>
       </c>
@@ -2319,9 +2333,18 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="6"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
+      <c r="A11" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2353,10 +2376,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
@@ -2365,7 +2388,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="36" t="s">
         <v>132</v>
       </c>
       <c r="B2" t="s">
@@ -2379,7 +2402,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="32"/>
+      <c r="A3" s="36"/>
       <c r="B3" t="s">
         <v>99</v>
       </c>
@@ -2391,7 +2414,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="32"/>
+      <c r="A4" s="36"/>
       <c r="B4" t="s">
         <v>105</v>
       </c>
@@ -2403,7 +2426,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="32"/>
+      <c r="A5" s="36"/>
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -2415,7 +2438,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
+      <c r="A6" s="36"/>
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -2427,11 +2450,11 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32"/>
+      <c r="A7" s="36"/>
       <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="21" t="s">
         <v>49</v>
       </c>
@@ -2443,7 +2466,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32"/>
+      <c r="A9" s="36"/>
       <c r="B9" t="s">
         <v>96</v>
       </c>
@@ -2455,7 +2478,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="32"/>
+      <c r="A10" s="36"/>
       <c r="B10" t="s">
         <v>113</v>
       </c>
@@ -2467,11 +2490,11 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="32"/>
+      <c r="A11" s="36"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="32"/>
+      <c r="A12" s="36"/>
       <c r="B12" t="s">
         <v>107</v>
       </c>
@@ -2483,7 +2506,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="32"/>
+      <c r="A13" s="36"/>
       <c r="B13" t="s">
         <v>108</v>
       </c>
@@ -2495,7 +2518,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="32"/>
+      <c r="A14" s="36"/>
       <c r="B14" t="s">
         <v>109</v>
       </c>
@@ -2507,7 +2530,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="36" t="s">
         <v>97</v>
       </c>
       <c r="B15" t="s">
@@ -2521,7 +2544,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="32"/>
+      <c r="A16" s="36"/>
       <c r="B16" t="s">
         <v>36</v>
       </c>
@@ -2533,7 +2556,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="32"/>
+      <c r="A17" s="36"/>
       <c r="B17" t="s">
         <v>77</v>
       </c>
@@ -2545,7 +2568,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="32"/>
+      <c r="A18" s="36"/>
       <c r="B18" t="s">
         <v>100</v>
       </c>
@@ -2557,7 +2580,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="36" t="s">
         <v>101</v>
       </c>
       <c r="B19" t="s">
@@ -2571,7 +2594,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="32"/>
+      <c r="A20" s="36"/>
       <c r="B20" t="s">
         <v>28</v>
       </c>
@@ -2583,7 +2606,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="32"/>
+      <c r="A21" s="36"/>
       <c r="B21" t="s">
         <v>103</v>
       </c>
@@ -2595,7 +2618,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="32"/>
+      <c r="A22" s="36"/>
       <c r="B22" t="s">
         <v>104</v>
       </c>
@@ -2621,7 +2644,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="36" t="s">
         <v>110</v>
       </c>
       <c r="B24" t="s">
@@ -2635,7 +2658,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="32"/>
+      <c r="A25" s="36"/>
       <c r="B25" t="s">
         <v>111</v>
       </c>
@@ -2647,7 +2670,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="32"/>
+      <c r="A26" s="36"/>
       <c r="B26" t="s">
         <v>112</v>
       </c>
@@ -2696,10 +2719,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="24" t="s">
         <v>42</v>
       </c>
@@ -2759,10 +2782,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="27" t="s">
         <v>42</v>
       </c>
